--- a/console/Networking/launchExcel/components/detailInfo.xlsx
+++ b/console/Networking/launchExcel/components/detailInfo.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10312"/>
   <workbookPr codeName="ThisWorkbook"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/lulu8/Documents/帮助文档/en/console/Networking/launchExcel/components/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{650BCB65-D2FD-6642-8D33-E9995784DDB0}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="20730" windowHeight="10740"/>
+    <workbookView xWindow="0" yWindow="460" windowWidth="23920" windowHeight="14220" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="ch" sheetId="1" r:id="rId1"/>
@@ -1157,45 +1163,9 @@
     <t>Bandwidth</t>
   </si>
   <si>
-    <t>SSH Key Pair</t>
-  </si>
-  <si>
     <t>Estimated Cost</t>
   </si>
   <si>
-    <t>Associated Availability Group</t>
-  </si>
-  <si>
-    <t>Availability Zone</t>
-  </si>
-  <si>
-    <t>Name cannot be null</t>
-  </si>
-  <si>
-    <t>The name length cannot exceed 32 characters</t>
-  </si>
-  <si>
-    <t>Name only supports Chinese, numbers, uppercase and lowercase letters, English underline “_” and line-through “-”</t>
-  </si>
-  <si>
-    <t>Description length cannot exceed 256 characters</t>
-  </si>
-  <si>
-    <t>Snapshot</t>
-  </si>
-  <si>
-    <t>'None'</t>
-  </si>
-  <si>
-    <t>Encryption</t>
-  </si>
-  <si>
-    <t>Yes'</t>
-  </si>
-  <si>
-    <t>No'</t>
-  </si>
-  <si>
     <t>'Yes'</t>
   </si>
   <si>
@@ -1203,21 +1173,6 @@
   </si>
   <si>
     <t xml:space="preserve">Local Disk </t>
-  </si>
-  <si>
-    <t>Release on Instance Termination</t>
-  </si>
-  <si>
-    <t>None'</t>
-  </si>
-  <si>
-    <t>'Local Disk '</t>
-  </si>
-  <si>
-    <t>By Traffic</t>
-  </si>
-  <si>
-    <t>By Bandwidth</t>
   </si>
   <si>
     <t>Modify name</t>
@@ -1228,19 +1183,87 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>No Data of Availability Group</t>
+    <t>Encrypted</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>Automatic allocate Device Name '</t>
+    <t>Auto-assigned Device Name '</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>By Bandwidth</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No Availability Group data</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>SSH Key Pair</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name cannot be blank</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Name only supports Chinese, numbers, capital and lowercase letters, English underline “_” and hyphen “-”.</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Associated Availability Group</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Availability Zone</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>The length of name cannot exceed 32 characters</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Description length cannot exceed 256 characters</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Snapshot</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'None'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Yes'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>No'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>Delete on instance termination</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>None'</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>'Local Disk '</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>By Traffic</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3" x14ac:knownFonts="1">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="3">
     <font>
       <sz val="12"/>
       <color theme="1"/>
@@ -1283,15 +1306,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="4">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyNumberFormat="1" applyFont="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" quotePrefix="1" applyNumberFormat="1" applyFont="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
   </cellXfs>
@@ -1632,22 +1652,22 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:C45"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A34" workbookViewId="0">
-      <selection activeCell="C42" sqref="C42"/>
+    <sheetView tabSelected="1" topLeftCell="A30" workbookViewId="0">
+      <selection activeCell="C47" sqref="C47"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="17.25" x14ac:dyDescent="0.3"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="9" defaultRowHeight="18"/>
   <cols>
     <col min="1" max="1" width="24.5" style="1" customWidth="1"/>
-    <col min="2" max="2" width="30.25" style="1" customWidth="1"/>
-    <col min="3" max="3" width="48.125" style="2" customWidth="1"/>
+    <col min="2" max="2" width="30.1640625" style="1" customWidth="1"/>
+    <col min="3" max="3" width="48.1640625" style="2" customWidth="1"/>
     <col min="4" max="16384" width="9" style="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:3" ht="19">
       <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
@@ -1658,7 +1678,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="2" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="2" spans="1:3" ht="19">
       <c r="A2" s="1" t="s">
         <v>2</v>
       </c>
@@ -1669,7 +1689,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="3" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="3" spans="1:3" ht="19">
       <c r="A3" s="1" t="s">
         <v>4</v>
       </c>
@@ -1680,7 +1700,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="4" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="4" spans="1:3" ht="19">
       <c r="A4" s="1" t="s">
         <v>6</v>
       </c>
@@ -1691,7 +1711,7 @@
         <v>93</v>
       </c>
     </row>
-    <row r="5" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="5" spans="1:3" ht="19">
       <c r="A5" s="1" t="s">
         <v>8</v>
       </c>
@@ -1702,7 +1722,7 @@
         <v>94</v>
       </c>
     </row>
-    <row r="6" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="6" spans="1:3" ht="19">
       <c r="A6" s="1" t="s">
         <v>10</v>
       </c>
@@ -1710,10 +1730,10 @@
         <v>11</v>
       </c>
       <c r="C6" s="2" t="s">
-        <v>131</v>
-      </c>
-    </row>
-    <row r="7" spans="1:3" x14ac:dyDescent="0.3">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="7" spans="1:3" ht="19">
       <c r="A7" s="1" t="s">
         <v>12</v>
       </c>
@@ -1724,7 +1744,7 @@
         <v>95</v>
       </c>
     </row>
-    <row r="8" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="8" spans="1:3" ht="19">
       <c r="A8" s="1" t="s">
         <v>14</v>
       </c>
@@ -1735,7 +1755,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="9" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="9" spans="1:3" ht="19">
       <c r="A9" s="1" t="s">
         <v>16</v>
       </c>
@@ -1746,7 +1766,7 @@
         <v>97</v>
       </c>
     </row>
-    <row r="10" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="10" spans="1:3" ht="19">
       <c r="A10" s="1" t="s">
         <v>18</v>
       </c>
@@ -1754,10 +1774,10 @@
         <v>19</v>
       </c>
       <c r="C10" s="2" t="s">
-        <v>132</v>
-      </c>
-    </row>
-    <row r="11" spans="1:3" x14ac:dyDescent="0.3">
+        <v>115</v>
+      </c>
+    </row>
+    <row r="11" spans="1:3" ht="19">
       <c r="A11" s="1" t="s">
         <v>20</v>
       </c>
@@ -1768,7 +1788,7 @@
         <v>98</v>
       </c>
     </row>
-    <row r="12" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="12" spans="1:3" ht="19">
       <c r="A12" s="1" t="s">
         <v>22</v>
       </c>
@@ -1779,7 +1799,7 @@
         <v>99</v>
       </c>
     </row>
-    <row r="13" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="13" spans="1:3" ht="19">
       <c r="A13" s="1" t="s">
         <v>24</v>
       </c>
@@ -1790,7 +1810,7 @@
         <v>100</v>
       </c>
     </row>
-    <row r="14" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="14" spans="1:3" ht="19">
       <c r="A14" s="1" t="s">
         <v>26</v>
       </c>
@@ -1801,7 +1821,7 @@
         <v>101</v>
       </c>
     </row>
-    <row r="15" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="15" spans="1:3" ht="19">
       <c r="A15" s="1" t="s">
         <v>28</v>
       </c>
@@ -1812,7 +1832,7 @@
         <v>102</v>
       </c>
     </row>
-    <row r="16" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="16" spans="1:3" ht="19">
       <c r="A16" s="1" t="s">
         <v>30</v>
       </c>
@@ -1823,7 +1843,7 @@
         <v>103</v>
       </c>
     </row>
-    <row r="17" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="17" spans="1:3" ht="19">
       <c r="A17" s="1" t="s">
         <v>32</v>
       </c>
@@ -1834,7 +1854,7 @@
         <v>104</v>
       </c>
     </row>
-    <row r="18" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="18" spans="1:3" ht="19">
       <c r="A18" s="1" t="s">
         <v>34</v>
       </c>
@@ -1845,7 +1865,7 @@
         <v>105</v>
       </c>
     </row>
-    <row r="19" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="19" spans="1:3" ht="19">
       <c r="A19" s="1" t="s">
         <v>36</v>
       </c>
@@ -1856,7 +1876,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="20" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="20" spans="1:3" ht="19">
       <c r="A20" s="1" t="s">
         <v>38</v>
       </c>
@@ -1867,7 +1887,7 @@
         <v>107</v>
       </c>
     </row>
-    <row r="21" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="21" spans="1:3" ht="19">
       <c r="A21" s="1" t="s">
         <v>40</v>
       </c>
@@ -1878,7 +1898,7 @@
         <v>108</v>
       </c>
     </row>
-    <row r="22" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="22" spans="1:3" ht="19">
       <c r="A22" s="1" t="s">
         <v>42</v>
       </c>
@@ -1889,7 +1909,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="23" spans="1:3" x14ac:dyDescent="0.3">
+    <row r="23" spans="1:3" ht="19">
       <c r="A23" s="1" t="s">
         <v>44</v>
       </c>
@@ -1897,10 +1917,10 @@
         <v>45</v>
       </c>
       <c r="C23" s="2" t="s">
-        <v>110</v>
-      </c>
-    </row>
-    <row r="24" spans="1:3" x14ac:dyDescent="0.3">
+        <v>120</v>
+      </c>
+    </row>
+    <row r="24" spans="1:3" ht="19">
       <c r="A24" s="1" t="s">
         <v>46</v>
       </c>
@@ -1908,10 +1928,10 @@
         <v>47</v>
       </c>
       <c r="C24" s="2" t="s">
-        <v>111</v>
-      </c>
-    </row>
-    <row r="25" spans="1:3" x14ac:dyDescent="0.3">
+        <v>110</v>
+      </c>
+    </row>
+    <row r="25" spans="1:3" ht="19">
       <c r="A25" s="1" t="s">
         <v>48</v>
       </c>
@@ -1919,10 +1939,10 @@
         <v>49</v>
       </c>
       <c r="C25" s="2" t="s">
-        <v>112</v>
-      </c>
-    </row>
-    <row r="26" spans="1:3" x14ac:dyDescent="0.3">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="26" spans="1:3" ht="19">
       <c r="A26" s="1" t="s">
         <v>50</v>
       </c>
@@ -1930,10 +1950,10 @@
         <v>51</v>
       </c>
       <c r="C26" s="2" t="s">
-        <v>113</v>
-      </c>
-    </row>
-    <row r="27" spans="1:3" x14ac:dyDescent="0.3">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="27" spans="1:3" ht="19">
       <c r="A27" s="1" t="s">
         <v>52</v>
       </c>
@@ -1941,10 +1961,10 @@
         <v>53</v>
       </c>
       <c r="C27" s="2" t="s">
-        <v>133</v>
-      </c>
-    </row>
-    <row r="28" spans="1:3" x14ac:dyDescent="0.3">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="28" spans="1:3" ht="19">
       <c r="A28" s="1" t="s">
         <v>54</v>
       </c>
@@ -1952,10 +1972,10 @@
         <v>55</v>
       </c>
       <c r="C28" s="2" t="s">
-        <v>114</v>
-      </c>
-    </row>
-    <row r="29" spans="1:3" x14ac:dyDescent="0.3">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="29" spans="1:3" ht="19">
       <c r="A29" s="1" t="s">
         <v>56</v>
       </c>
@@ -1963,10 +1983,10 @@
         <v>57</v>
       </c>
       <c r="C29" s="2" t="s">
-        <v>115</v>
-      </c>
-    </row>
-    <row r="30" spans="1:3" ht="51.75" x14ac:dyDescent="0.3">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="30" spans="1:3" ht="57">
       <c r="A30" s="1" t="s">
         <v>58</v>
       </c>
@@ -1974,10 +1994,10 @@
         <v>59</v>
       </c>
       <c r="C30" s="2" t="s">
-        <v>116</v>
-      </c>
-    </row>
-    <row r="31" spans="1:3" x14ac:dyDescent="0.3">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="31" spans="1:3" ht="19">
       <c r="A31" s="1" t="s">
         <v>60</v>
       </c>
@@ -1985,10 +2005,10 @@
         <v>61</v>
       </c>
       <c r="C31" s="2" t="s">
-        <v>117</v>
-      </c>
-    </row>
-    <row r="32" spans="1:3" x14ac:dyDescent="0.3">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="32" spans="1:3" ht="19">
       <c r="A32" s="1" t="s">
         <v>62</v>
       </c>
@@ -1996,10 +2016,10 @@
         <v>63</v>
       </c>
       <c r="C32" s="2" t="s">
-        <v>118</v>
-      </c>
-    </row>
-    <row r="33" spans="1:3" x14ac:dyDescent="0.3">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="33" spans="1:3" ht="19">
       <c r="A33" s="1" t="s">
         <v>64</v>
       </c>
@@ -2007,10 +2027,10 @@
         <v>65</v>
       </c>
       <c r="C33" s="2" t="s">
-        <v>119</v>
-      </c>
-    </row>
-    <row r="34" spans="1:3" x14ac:dyDescent="0.3">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="34" spans="1:3" ht="19">
       <c r="A34" s="1" t="s">
         <v>66</v>
       </c>
@@ -2018,10 +2038,10 @@
         <v>67</v>
       </c>
       <c r="C34" s="2" t="s">
-        <v>120</v>
-      </c>
-    </row>
-    <row r="35" spans="1:3" x14ac:dyDescent="0.3">
+        <v>116</v>
+      </c>
+    </row>
+    <row r="35" spans="1:3" ht="19">
       <c r="A35" s="1" t="s">
         <v>68</v>
       </c>
@@ -2029,10 +2049,10 @@
         <v>69</v>
       </c>
       <c r="C35" s="2" t="s">
-        <v>121</v>
-      </c>
-    </row>
-    <row r="36" spans="1:3" x14ac:dyDescent="0.3">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="36" spans="1:3" ht="19">
       <c r="A36" s="1" t="s">
         <v>70</v>
       </c>
@@ -2040,10 +2060,10 @@
         <v>71</v>
       </c>
       <c r="C36" s="2" t="s">
-        <v>122</v>
-      </c>
-    </row>
-    <row r="37" spans="1:3" x14ac:dyDescent="0.3">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="37" spans="1:3" ht="19">
       <c r="A37" s="1" t="s">
         <v>72</v>
       </c>
@@ -2051,10 +2071,10 @@
         <v>73</v>
       </c>
       <c r="C37" s="2" t="s">
-        <v>123</v>
-      </c>
-    </row>
-    <row r="38" spans="1:3" x14ac:dyDescent="0.3">
+        <v>111</v>
+      </c>
+    </row>
+    <row r="38" spans="1:3" ht="19">
       <c r="A38" s="1" t="s">
         <v>74</v>
       </c>
@@ -2062,10 +2082,10 @@
         <v>75</v>
       </c>
       <c r="C38" s="2" t="s">
-        <v>124</v>
-      </c>
-    </row>
-    <row r="39" spans="1:3" x14ac:dyDescent="0.3">
+        <v>112</v>
+      </c>
+    </row>
+    <row r="39" spans="1:3" ht="19">
       <c r="A39" s="1" t="s">
         <v>76</v>
       </c>
@@ -2073,10 +2093,10 @@
         <v>77</v>
       </c>
       <c r="C39" s="2" t="s">
-        <v>125</v>
-      </c>
-    </row>
-    <row r="40" spans="1:3" x14ac:dyDescent="0.3">
+        <v>113</v>
+      </c>
+    </row>
+    <row r="40" spans="1:3" ht="19">
       <c r="A40" s="1" t="s">
         <v>78</v>
       </c>
@@ -2084,10 +2104,10 @@
         <v>79</v>
       </c>
       <c r="C40" s="2" t="s">
-        <v>126</v>
-      </c>
-    </row>
-    <row r="41" spans="1:3" x14ac:dyDescent="0.3">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="41" spans="1:3" ht="19">
       <c r="A41" s="1" t="s">
         <v>80</v>
       </c>
@@ -2095,21 +2115,21 @@
         <v>81</v>
       </c>
       <c r="C41" s="2" t="s">
-        <v>127</v>
-      </c>
-    </row>
-    <row r="42" spans="1:3" x14ac:dyDescent="0.3">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="42" spans="1:3" ht="19">
       <c r="A42" s="1" t="s">
         <v>82</v>
       </c>
       <c r="B42" s="1" t="s">
         <v>83</v>
       </c>
-      <c r="C42" s="3" t="s">
-        <v>134</v>
-      </c>
-    </row>
-    <row r="43" spans="1:3" x14ac:dyDescent="0.3">
+      <c r="C42" s="2" t="s">
+        <v>117</v>
+      </c>
+    </row>
+    <row r="43" spans="1:3" ht="19">
       <c r="A43" s="1" t="s">
         <v>84</v>
       </c>
@@ -2117,10 +2137,10 @@
         <v>85</v>
       </c>
       <c r="C43" s="2" t="s">
-        <v>128</v>
-      </c>
-    </row>
-    <row r="44" spans="1:3" x14ac:dyDescent="0.3">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="44" spans="1:3" ht="19">
       <c r="A44" s="1" t="s">
         <v>86</v>
       </c>
@@ -2128,10 +2148,10 @@
         <v>87</v>
       </c>
       <c r="C44" s="2" t="s">
-        <v>129</v>
-      </c>
-    </row>
-    <row r="45" spans="1:3" x14ac:dyDescent="0.3">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="45" spans="1:3" ht="19">
       <c r="A45" s="1" t="s">
         <v>88</v>
       </c>
@@ -2139,7 +2159,7 @@
         <v>89</v>
       </c>
       <c r="C45" s="2" t="s">
-        <v>130</v>
+        <v>118</v>
       </c>
     </row>
   </sheetData>
